--- a/biology/Neurosciences/Francesca_Sargolini/Francesca_Sargolini.xlsx
+++ b/biology/Neurosciences/Francesca_Sargolini/Francesca_Sargolini.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Francesca Sargolini est une enseignante-chercheuse professeur d'université en neurosciences cognitives, spécialisée dans le domaine de la cognition spatiale travaillant au sein de l'université d'Aix-Marseille.
 En 2017, elle est lauréate de la médaille de bronze du CNRS.
@@ -512,15 +524,17 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Francesca Sargolini obtient un doctorat en neurosciences à l’Université Toulouse-III-Paul-Sabatier à Toulouse et un doctorat en psychobiologie et psychopharmacologie à l’université de Rome « La Sapienza » où elle reçoit le prix du meilleur doctorat de la spécialité. Elle complète sa formation avec un post-doctorat en Norvège dans le laboratoire de May-Britt Moser et Edvard Moser. Là, elle contribue à la découverte des cellules de grille dans une région du cerveau appelée cortex entorhinal[1] », travaux pour lesquels May-Britt Moser et Edvard Moser recevront le prix Nobel de physiologie ou médecine en 2014[2].
-Le 26 mars 2004, elle est nommée maître de conférences[3].
-Depuis 2006, Francesca Sargolini travaille au laboratoire de neurosciences cognitives de Marseille. Habilitée à diriger des recherches[4], elle est l'une des responsables du master de neurosciences[5].
-Ses travaux de recherche, « régulièrement valorisées dans des revues de haute qualité »[2] lui ont valu de devenir membre de  l’Institut universitaire de France dans le domaine Neurosciences-Cognition-Neurophysiologie[6].
-En avril 2018, elle est l'une des signataires de l'appel d'universitaires « qui s'insurgent de la répression à l’œuvre dans les campus »[7] puis de la « menace de grève illimitée et de blocage des examens »[8].
-En 2019, elle dirige l’équipe « Cognition spatiale » qui recherche notamment à comprendre le fonctionnement du sens de l'orientation[9] ou encore « comment s’y prend notre cerveau pour nous permettre de nous déplacer en sachant toujours où nous sommes et vers où nous allons ? », travaux publiés dans la revue scientifique Nature Communications[10] et exposés dans la revue du CNRS[11].
-Le 28 octobre 2019, elle est nommée professeur des universités et affectée à l'université d'Aix-Marseille[12].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Francesca Sargolini obtient un doctorat en neurosciences à l’Université Toulouse-III-Paul-Sabatier à Toulouse et un doctorat en psychobiologie et psychopharmacologie à l’université de Rome « La Sapienza » où elle reçoit le prix du meilleur doctorat de la spécialité. Elle complète sa formation avec un post-doctorat en Norvège dans le laboratoire de May-Britt Moser et Edvard Moser. Là, elle contribue à la découverte des cellules de grille dans une région du cerveau appelée cortex entorhinal », travaux pour lesquels May-Britt Moser et Edvard Moser recevront le prix Nobel de physiologie ou médecine en 2014.
+Le 26 mars 2004, elle est nommée maître de conférences.
+Depuis 2006, Francesca Sargolini travaille au laboratoire de neurosciences cognitives de Marseille. Habilitée à diriger des recherches, elle est l'une des responsables du master de neurosciences.
+Ses travaux de recherche, « régulièrement valorisées dans des revues de haute qualité » lui ont valu de devenir membre de  l’Institut universitaire de France dans le domaine Neurosciences-Cognition-Neurophysiologie.
+En avril 2018, elle est l'une des signataires de l'appel d'universitaires « qui s'insurgent de la répression à l’œuvre dans les campus » puis de la « menace de grève illimitée et de blocage des examens ».
+En 2019, elle dirige l’équipe « Cognition spatiale » qui recherche notamment à comprendre le fonctionnement du sens de l'orientation ou encore « comment s’y prend notre cerveau pour nous permettre de nous déplacer en sachant toujours où nous sommes et vers où nous allons ? », travaux publiés dans la revue scientifique Nature Communications et exposés dans la revue du CNRS.
+Le 28 octobre 2019, elle est nommée professeur des universités et affectée à l'université d'Aix-Marseille.
 </t>
         </is>
       </c>
@@ -549,9 +563,11 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Francesca Sargolini a publié de nombreux articles cités dans Google Scholar[13].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Francesca Sargolini a publié de nombreux articles cités dans Google Scholar.
 </t>
         </is>
       </c>
@@ -580,10 +596,12 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 2017, Francesca Sargolini reçoit la médaille de bronze du CNRS[2].
-Elle est élue membre du conseil d'administration de la Société des neurosciences pour la période 2019-2021[14].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2017, Francesca Sargolini reçoit la médaille de bronze du CNRS.
+Elle est élue membre du conseil d'administration de la Société des neurosciences pour la période 2019-2021.
 </t>
         </is>
       </c>
